--- a/docs/checklist.xlsx
+++ b/docs/checklist.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
         </is>
       </c>
     </row>
@@ -457,6 +467,16 @@
           <t>✅</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -469,6 +489,16 @@
           <t>✅</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -481,6 +511,16 @@
           <t>✅</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -493,6 +533,16 @@
           <t>✅</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -505,6 +555,16 @@
           <t>✅</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -517,6 +577,16 @@
           <t>✅</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -529,6 +599,16 @@
           <t>✅</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -541,6 +621,16 @@
           <t>✅</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -553,6 +643,16 @@
           <t>✅</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -565,6 +665,16 @@
           <t>✅</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -575,6 +685,16 @@
       <c r="B12" t="inlineStr">
         <is>
           <t>✅</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -589,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +752,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -660,7 +780,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -688,7 +808,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -716,7 +836,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -744,7 +864,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -772,7 +892,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -800,7 +920,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -828,7 +948,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -856,7 +976,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -884,7 +1004,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -912,7 +1032,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Test_01_20250927_21:37</t>
+          <t>Test_01_20250929_14:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -936,6 +1056,634 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Cargar Feed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Dar Like a Publicación</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Quitar Like a Publicación</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Crear Comentario</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Eliminar Comentario</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Feed flow completo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cargar Follows</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cambiar a pestaña SEGUIDORES</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Seguir Usuario</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Dejar de Seguir Usuario</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:03</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Network flow completo</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cargar Feed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dar Like a Publicación</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Quitar Like a Publicación</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Crear Comentario</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Eliminar Comentario</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Feed flow completo</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Cargar Follows</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Cambiar a pestaña SEGUIDORES</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Seguir Usuario</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No hay usuario con botón 'Seguir'</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Dejar de Seguir Usuario</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No se pudo reusar botón para unfollow</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Test_01_20250929_14:37</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>test_e2e_full_flow</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>test_full_user_journey</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Network flow completo</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Faltaron pasos</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
